--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,9 +52,6 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -70,15 +67,15 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -88,154 +85,163 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>years</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>good</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>new</t>
@@ -244,94 +250,79 @@
     <t>exactly</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>last</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>product</t>
@@ -695,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,16 +776,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -814,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5925925925925926</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -832,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8653250773993808</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>559</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>559</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3255813953488372</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>553</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>553</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3018867924528302</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7532467532467533</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2564102564102564</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.7391304347826086</v>
@@ -1064,87 +1055,63 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2323232323232323</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>166</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.7229437229437229</v>
+      </c>
+      <c r="L9">
+        <v>167</v>
+      </c>
+      <c r="M9">
+        <v>167</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>76</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L9">
-        <v>165</v>
-      </c>
-      <c r="M9">
-        <v>165</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1297297297297297</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>161</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.6896551724137931</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.6875</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1239,16 +1206,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6571428571428571</v>
+        <v>0.6548956661316212</v>
       </c>
       <c r="L14">
-        <v>115</v>
+        <v>816</v>
       </c>
       <c r="M14">
-        <v>115</v>
+        <v>816</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,12 +1227,12 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>60</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.647887323943662</v>
@@ -1291,16 +1258,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6406779661016949</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L16">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>106</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6388443017656501</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L17">
-        <v>796</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>796</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6176470588235294</v>
+        <v>0.64</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6164383561643836</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1395,16 +1362,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6140350877192983</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1416,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5972222222222222</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1473,16 +1440,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5299145299145299</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L23">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5192307692307693</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.4970059880239521</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L25">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.4819277108433735</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,47 +1565,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>0.4939759036144578</v>
+      </c>
+      <c r="L28">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>42</v>
-      </c>
-      <c r="K28">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L28">
-        <v>36</v>
-      </c>
-      <c r="M28">
-        <v>36</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4661654135338346</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1650,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4583333333333333</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1676,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4426229508196721</v>
+        <v>0.4670658682634731</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1702,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4320987654320987</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1728,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4307692307692308</v>
+        <v>0.43</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1754,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4156626506024096</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L34">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M34">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1780,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.4126984126984127</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1806,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.4117647058823529</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1832,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3846153846153846</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1858,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3774509803921569</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L38">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1884,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>254</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.37</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1910,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3609022556390977</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L40">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M40">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1936,12 +1903,12 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>0.3469387755102041</v>
@@ -1967,16 +1934,16 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.3469387755102041</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1988,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>32</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.3385214007782101</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L43">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2014,21 +1981,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>170</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.3191780821917808</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L44">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2040,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>497</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.2903225806451613</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2066,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2882882882882883</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2092,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2857142857142857</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2118,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2727272727272727</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L48">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2144,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2592592592592592</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L49">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2170,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>80</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2583423035522067</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L50">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="M50">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2196,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>689</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.2376237623762376</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2222,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.223021582733813</v>
+        <v>0.2529601722282024</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2248,15 +2215,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>108</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.2222222222222222</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L53">
         <v>16</v>
@@ -2274,21 +2241,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.2205882352941176</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2300,21 +2267,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.2185430463576159</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2326,21 +2293,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.213166144200627</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L56">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M56">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2352,21 +2319,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.2105263157894737</v>
+        <v>0.2079470198675497</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2378,21 +2345,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>60</v>
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.2033248081841432</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="L58">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2404,21 +2371,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>623</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1907284768211921</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L59">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2430,21 +2397,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>611</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1879194630872483</v>
+        <v>0.190537084398977</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2456,47 +2423,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>121</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1875</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.1785714285714286</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2508,21 +2475,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1714285714285714</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2534,41 +2501,41 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.1559633027522936</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L64">
         <v>17</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1441441441441441</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L65">
         <v>16</v>
@@ -2586,73 +2553,73 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.1402439024390244</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>141</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.134020618556701</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="L67">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M67">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.1311475409836066</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2664,21 +2631,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.1307692307692308</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L69">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2690,21 +2657,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>113</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.1260504201680672</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M70">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2716,21 +2683,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>208</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.124031007751938</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2742,47 +2709,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>113</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.1188118811881188</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>178</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.1185983827493261</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="L73">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2794,21 +2761,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>327</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.1136363636363636</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L74">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M74">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2820,15 +2787,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>390</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.1097852028639618</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L75">
         <v>46</v>
@@ -2846,21 +2813,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.108974358974359</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2872,21 +2839,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1070559610705596</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L77">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2898,21 +2865,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>367</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1030701754385965</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L78">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M78">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2924,21 +2891,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>409</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.1016949152542373</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2950,21 +2917,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.09815950920245399</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L80">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2976,47 +2943,47 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.09696969696969697</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L81">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>149</v>
+        <v>649</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K82">
-        <v>0.0962962962962963</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="L82">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M82">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3028,47 +2995,47 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>244</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K83">
-        <v>0.08148148148148149</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L83">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M83">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>248</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>0.07650273224043716</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="L84">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M84">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3080,73 +3047,73 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K85">
-        <v>0.07476635514018691</v>
+        <v>0.05166051660516605</v>
       </c>
       <c r="L85">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="M85">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N85">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>990</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K86">
-        <v>0.06743185078909612</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="L86">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M86">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N86">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O86">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>650</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K87">
-        <v>0.06048387096774194</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3158,137 +3125,85 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>233</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K88">
-        <v>0.04797047970479705</v>
+        <v>0.04065743944636678</v>
       </c>
       <c r="L88">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M88">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>516</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K89">
-        <v>0.04568527918781726</v>
+        <v>0.03071017274472169</v>
       </c>
       <c r="L89">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>376</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K90">
-        <v>0.03653846153846154</v>
+        <v>0.02496714848883048</v>
       </c>
       <c r="L90">
         <v>19</v>
       </c>
       <c r="M90">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N90">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="O90">
-        <v>0.09999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K91">
-        <v>0.03466204506065858</v>
-      </c>
-      <c r="L91">
-        <v>40</v>
-      </c>
-      <c r="M91">
-        <v>43</v>
-      </c>
-      <c r="N91">
-        <v>0.93</v>
-      </c>
-      <c r="O91">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K92">
-        <v>0.0235910878112713</v>
-      </c>
-      <c r="L92">
-        <v>18</v>
-      </c>
-      <c r="M92">
-        <v>22</v>
-      </c>
-      <c r="N92">
-        <v>0.82</v>
-      </c>
-      <c r="O92">
-        <v>0.18</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
